--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -119,10 +119,10 @@
     <t>Anticoagulant (substance)</t>
   </si>
   <si>
-    <t>1237404009</t>
-  </si>
-  <si>
-    <t>Uses hormone method of contraception (finding)</t>
+    <t>312263009</t>
+  </si>
+  <si>
+    <t>Sex hormone (substance)</t>
   </si>
   <si>
     <t>372912004</t>
